--- a/일일공급량_raw.xlsx
+++ b/일일공급량_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2026\streamlit_study\MM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEEF35E-0050-4ACC-8B03-1E82407930D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9884494-FEE7-4F6B-BEBC-27B55FE83E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA341F54-7076-456B-B2A5-63C21B48371E}"/>
   </bookViews>
@@ -63,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +85,152 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +249,181 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -123,13 +440,243 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,38 +698,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,16 +1080,16 @@
   <dimension ref="A1:F4749"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4415" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4418" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4433" sqref="J4433"/>
+      <selection pane="bottomRight" activeCell="H4433" sqref="H4433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="3" width="15" style="11" customWidth="1"/>
+    <col min="2" max="3" width="15" style="9" customWidth="1"/>
     <col min="4" max="6" width="12.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -515,10 +1097,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -80275,10 +80857,10 @@
       <c r="A3989" s="2">
         <v>45627</v>
       </c>
-      <c r="B3989" s="11">
+      <c r="B3989" s="9">
         <v>149870458</v>
       </c>
-      <c r="C3989" s="11">
+      <c r="C3989" s="9">
         <v>3510476</v>
       </c>
       <c r="D3989" s="1">
@@ -80295,10 +80877,10 @@
       <c r="A3990" s="2">
         <v>45628</v>
       </c>
-      <c r="B3990" s="11">
+      <c r="B3990" s="9">
         <v>159993580</v>
       </c>
-      <c r="C3990" s="11">
+      <c r="C3990" s="9">
         <v>3751250</v>
       </c>
       <c r="D3990" s="1">
@@ -80315,10 +80897,10 @@
       <c r="A3991" s="2">
         <v>45629</v>
       </c>
-      <c r="B3991" s="11">
+      <c r="B3991" s="9">
         <v>180191026</v>
       </c>
-      <c r="C3991" s="11">
+      <c r="C3991" s="9">
         <v>4238687</v>
       </c>
       <c r="D3991" s="1">
@@ -80335,10 +80917,10 @@
       <c r="A3992" s="2">
         <v>45630</v>
       </c>
-      <c r="B3992" s="11">
+      <c r="B3992" s="9">
         <v>191604997</v>
       </c>
-      <c r="C3992" s="11">
+      <c r="C3992" s="9">
         <v>4517441</v>
       </c>
       <c r="D3992" s="1">
@@ -80355,10 +80937,10 @@
       <c r="A3993" s="2">
         <v>45631</v>
       </c>
-      <c r="B3993" s="11">
+      <c r="B3993" s="9">
         <v>195719114</v>
       </c>
-      <c r="C3993" s="11">
+      <c r="C3993" s="9">
         <v>4597501</v>
       </c>
       <c r="D3993" s="1">
@@ -80375,10 +80957,10 @@
       <c r="A3994" s="2">
         <v>45632</v>
       </c>
-      <c r="B3994" s="11">
+      <c r="B3994" s="9">
         <v>192275992</v>
       </c>
-      <c r="C3994" s="11">
+      <c r="C3994" s="9">
         <v>4507512</v>
       </c>
       <c r="D3994" s="1">
@@ -80395,10 +80977,10 @@
       <c r="A3995" s="2">
         <v>45633</v>
       </c>
-      <c r="B3995" s="11">
+      <c r="B3995" s="9">
         <v>189332502</v>
       </c>
-      <c r="C3995" s="11">
+      <c r="C3995" s="9">
         <v>4422354</v>
       </c>
       <c r="D3995" s="1">
@@ -80415,10 +80997,10 @@
       <c r="A3996" s="2">
         <v>45634</v>
       </c>
-      <c r="B3996" s="11">
+      <c r="B3996" s="9">
         <v>193284502</v>
       </c>
-      <c r="C3996" s="11">
+      <c r="C3996" s="9">
         <v>4496810</v>
       </c>
       <c r="D3996" s="1">
@@ -80435,10 +81017,10 @@
       <c r="A3997" s="2">
         <v>45635</v>
       </c>
-      <c r="B3997" s="11">
+      <c r="B3997" s="9">
         <v>212797345</v>
       </c>
-      <c r="C3997" s="11">
+      <c r="C3997" s="9">
         <v>4957261</v>
       </c>
       <c r="D3997" s="1">
@@ -80455,10 +81037,10 @@
       <c r="A3998" s="2">
         <v>45636</v>
       </c>
-      <c r="B3998" s="11">
+      <c r="B3998" s="9">
         <v>209051858</v>
       </c>
-      <c r="C3998" s="11">
+      <c r="C3998" s="9">
         <v>4885158</v>
       </c>
       <c r="D3998" s="1">
@@ -80475,10 +81057,10 @@
       <c r="A3999" s="2">
         <v>45637</v>
       </c>
-      <c r="B3999" s="11">
+      <c r="B3999" s="9">
         <v>208465461</v>
       </c>
-      <c r="C3999" s="11">
+      <c r="C3999" s="9">
         <v>4875493</v>
       </c>
       <c r="D3999" s="1">
@@ -80495,10 +81077,10 @@
       <c r="A4000" s="2">
         <v>45638</v>
       </c>
-      <c r="B4000" s="11">
+      <c r="B4000" s="9">
         <v>216223984</v>
       </c>
-      <c r="C4000" s="11">
+      <c r="C4000" s="9">
         <v>5042621</v>
       </c>
       <c r="D4000" s="1">
@@ -80515,10 +81097,10 @@
       <c r="A4001" s="2">
         <v>45639</v>
       </c>
-      <c r="B4001" s="11">
+      <c r="B4001" s="9">
         <v>224119150</v>
       </c>
-      <c r="C4001" s="11">
+      <c r="C4001" s="9">
         <v>5227741</v>
       </c>
       <c r="D4001" s="1">
@@ -80535,10 +81117,10 @@
       <c r="A4002" s="2">
         <v>45640</v>
       </c>
-      <c r="B4002" s="11">
+      <c r="B4002" s="9">
         <v>213820337</v>
       </c>
-      <c r="C4002" s="11">
+      <c r="C4002" s="9">
         <v>5000742</v>
       </c>
       <c r="D4002" s="1">
@@ -80555,10 +81137,10 @@
       <c r="A4003" s="2">
         <v>45641</v>
       </c>
-      <c r="B4003" s="11">
+      <c r="B4003" s="9">
         <v>208520157</v>
       </c>
-      <c r="C4003" s="11">
+      <c r="C4003" s="9">
         <v>4878536</v>
       </c>
       <c r="D4003" s="1">
@@ -80575,10 +81157,10 @@
       <c r="A4004" s="2">
         <v>45642</v>
       </c>
-      <c r="B4004" s="11">
+      <c r="B4004" s="9">
         <v>220776298</v>
       </c>
-      <c r="C4004" s="11">
+      <c r="C4004" s="9">
         <v>5162240</v>
       </c>
       <c r="D4004" s="1">
@@ -80595,10 +81177,10 @@
       <c r="A4005" s="2">
         <v>45643</v>
       </c>
-      <c r="B4005" s="11">
+      <c r="B4005" s="9">
         <v>220240525</v>
       </c>
-      <c r="C4005" s="11">
+      <c r="C4005" s="9">
         <v>5146825</v>
       </c>
       <c r="D4005" s="1">
@@ -80615,10 +81197,10 @@
       <c r="A4006" s="2">
         <v>45644</v>
       </c>
-      <c r="B4006" s="11">
+      <c r="B4006" s="9">
         <v>239051999</v>
       </c>
-      <c r="C4006" s="11">
+      <c r="C4006" s="9">
         <v>5587648</v>
       </c>
       <c r="D4006" s="1">
@@ -80635,10 +81217,10 @@
       <c r="A4007" s="2">
         <v>45645</v>
       </c>
-      <c r="B4007" s="11">
+      <c r="B4007" s="9">
         <v>242170886</v>
       </c>
-      <c r="C4007" s="11">
+      <c r="C4007" s="9">
         <v>5639851</v>
       </c>
       <c r="D4007" s="1">
@@ -80655,10 +81237,10 @@
       <c r="A4008" s="2">
         <v>45646</v>
       </c>
-      <c r="B4008" s="11">
+      <c r="B4008" s="9">
         <v>237764909</v>
       </c>
-      <c r="C4008" s="11">
+      <c r="C4008" s="9">
         <v>5532184</v>
       </c>
       <c r="D4008" s="1">
@@ -80675,10 +81257,10 @@
       <c r="A4009" s="2">
         <v>45647</v>
       </c>
-      <c r="B4009" s="11">
+      <c r="B4009" s="9">
         <v>226328658</v>
       </c>
-      <c r="C4009" s="11">
+      <c r="C4009" s="9">
         <v>5262797</v>
       </c>
       <c r="D4009" s="1">
@@ -80695,10 +81277,10 @@
       <c r="A4010" s="2">
         <v>45648</v>
       </c>
-      <c r="B4010" s="11">
+      <c r="B4010" s="9">
         <v>229432289</v>
       </c>
-      <c r="C4010" s="11">
+      <c r="C4010" s="9">
         <v>5335173</v>
       </c>
       <c r="D4010" s="1">
@@ -80715,10 +81297,10 @@
       <c r="A4011" s="2">
         <v>45649</v>
       </c>
-      <c r="B4011" s="11">
+      <c r="B4011" s="9">
         <v>241735265</v>
       </c>
-      <c r="C4011" s="11">
+      <c r="C4011" s="9">
         <v>5639362</v>
       </c>
       <c r="D4011" s="1">
@@ -80735,10 +81317,10 @@
       <c r="A4012" s="2">
         <v>45650</v>
       </c>
-      <c r="B4012" s="11">
+      <c r="B4012" s="9">
         <v>237403075</v>
       </c>
-      <c r="C4012" s="11">
+      <c r="C4012" s="9">
         <v>5536875</v>
       </c>
       <c r="D4012" s="1">
@@ -80755,10 +81337,10 @@
       <c r="A4013" s="2">
         <v>45651</v>
       </c>
-      <c r="B4013" s="11">
+      <c r="B4013" s="9">
         <v>219679262</v>
       </c>
-      <c r="C4013" s="11">
+      <c r="C4013" s="9">
         <v>5122776</v>
       </c>
       <c r="D4013" s="1">
@@ -80775,10 +81357,10 @@
       <c r="A4014" s="2">
         <v>45652</v>
       </c>
-      <c r="B4014" s="11">
+      <c r="B4014" s="9">
         <v>228188083</v>
       </c>
-      <c r="C4014" s="11">
+      <c r="C4014" s="9">
         <v>5319162</v>
       </c>
       <c r="D4014" s="1">
@@ -80795,10 +81377,10 @@
       <c r="A4015" s="2">
         <v>45653</v>
       </c>
-      <c r="B4015" s="11">
+      <c r="B4015" s="9">
         <v>244258151</v>
       </c>
-      <c r="C4015" s="11">
+      <c r="C4015" s="9">
         <v>5691580</v>
       </c>
       <c r="D4015" s="1">
@@ -80815,10 +81397,10 @@
       <c r="A4016" s="2">
         <v>45654</v>
       </c>
-      <c r="B4016" s="11">
+      <c r="B4016" s="9">
         <v>233925973</v>
       </c>
-      <c r="C4016" s="11">
+      <c r="C4016" s="9">
         <v>5447769</v>
       </c>
       <c r="D4016" s="1">
@@ -80835,10 +81417,10 @@
       <c r="A4017" s="2">
         <v>45655</v>
       </c>
-      <c r="B4017" s="11">
+      <c r="B4017" s="9">
         <v>213981422</v>
       </c>
-      <c r="C4017" s="11">
+      <c r="C4017" s="9">
         <v>4988745</v>
       </c>
       <c r="D4017" s="1">
@@ -80855,10 +81437,10 @@
       <c r="A4018" s="2">
         <v>45656</v>
       </c>
-      <c r="B4018" s="11">
+      <c r="B4018" s="9">
         <v>223385483</v>
       </c>
-      <c r="C4018" s="11">
+      <c r="C4018" s="9">
         <v>5205778</v>
       </c>
       <c r="D4018" s="1">
@@ -80875,10 +81457,10 @@
       <c r="A4019" s="2">
         <v>45657</v>
       </c>
-      <c r="B4019" s="11">
+      <c r="B4019" s="9">
         <v>216263542</v>
       </c>
-      <c r="C4019" s="11">
+      <c r="C4019" s="9">
         <v>5038810</v>
       </c>
       <c r="D4019" s="1">
@@ -80895,10 +81477,10 @@
       <c r="A4020" s="2">
         <v>45658</v>
       </c>
-      <c r="B4020" s="11">
+      <c r="B4020" s="9">
         <v>201551143</v>
       </c>
-      <c r="C4020" s="11">
+      <c r="C4020" s="9">
         <v>4691390</v>
       </c>
       <c r="D4020" s="1">
@@ -80915,10 +81497,10 @@
       <c r="A4021" s="2">
         <v>45659</v>
       </c>
-      <c r="B4021" s="11">
+      <c r="B4021" s="9">
         <v>219103221</v>
       </c>
-      <c r="C4021" s="11">
+      <c r="C4021" s="9">
         <v>5093870</v>
       </c>
       <c r="D4021" s="1">
@@ -80935,10 +81517,10 @@
       <c r="A4022" s="2">
         <v>45660</v>
       </c>
-      <c r="B4022" s="11">
+      <c r="B4022" s="9">
         <v>233788298</v>
       </c>
-      <c r="C4022" s="11">
+      <c r="C4022" s="9">
         <v>5446835</v>
       </c>
       <c r="D4022" s="1">
@@ -80955,10 +81537,10 @@
       <c r="A4023" s="2">
         <v>45661</v>
       </c>
-      <c r="B4023" s="11">
+      <c r="B4023" s="9">
         <v>214955890</v>
       </c>
-      <c r="C4023" s="11">
+      <c r="C4023" s="9">
         <v>5008399</v>
       </c>
       <c r="D4023" s="1">
@@ -80975,10 +81557,10 @@
       <c r="A4024" s="2">
         <v>45662</v>
       </c>
-      <c r="B4024" s="11">
+      <c r="B4024" s="9">
         <v>216290771</v>
       </c>
-      <c r="C4024" s="11">
+      <c r="C4024" s="9">
         <v>5034705</v>
       </c>
       <c r="D4024" s="1">
@@ -80995,10 +81577,10 @@
       <c r="A4025" s="2">
         <v>45663</v>
       </c>
-      <c r="B4025" s="11">
+      <c r="B4025" s="9">
         <v>238604041</v>
       </c>
-      <c r="C4025" s="11">
+      <c r="C4025" s="9">
         <v>5553533</v>
       </c>
       <c r="D4025" s="1">
@@ -81015,10 +81597,10 @@
       <c r="A4026" s="2">
         <v>45664</v>
       </c>
-      <c r="B4026" s="11">
+      <c r="B4026" s="9">
         <v>255113289</v>
       </c>
-      <c r="C4026" s="11">
+      <c r="C4026" s="9">
         <v>5920324</v>
       </c>
       <c r="D4026" s="1">
@@ -81035,10 +81617,10 @@
       <c r="A4027" s="2">
         <v>45665</v>
       </c>
-      <c r="B4027" s="11">
+      <c r="B4027" s="9">
         <v>256870648</v>
       </c>
-      <c r="C4027" s="11">
+      <c r="C4027" s="9">
         <v>5947064</v>
       </c>
       <c r="D4027" s="1">
@@ -81055,10 +81637,10 @@
       <c r="A4028" s="2">
         <v>45666</v>
       </c>
-      <c r="B4028" s="11">
+      <c r="B4028" s="9">
         <v>301102072</v>
       </c>
-      <c r="C4028" s="11">
+      <c r="C4028" s="9">
         <v>6961399</v>
       </c>
       <c r="D4028" s="1">
@@ -81075,10 +81657,10 @@
       <c r="A4029" s="2">
         <v>45667</v>
       </c>
-      <c r="B4029" s="11">
+      <c r="B4029" s="9">
         <v>306966064</v>
       </c>
-      <c r="C4029" s="11">
+      <c r="C4029" s="9">
         <v>7125750</v>
       </c>
       <c r="D4029" s="1">
@@ -81095,10 +81677,10 @@
       <c r="A4030" s="2">
         <v>45668</v>
       </c>
-      <c r="B4030" s="11">
+      <c r="B4030" s="9">
         <v>270848787</v>
       </c>
-      <c r="C4030" s="11">
+      <c r="C4030" s="9">
         <v>6299331</v>
       </c>
       <c r="D4030" s="1">
@@ -81115,10 +81697,10 @@
       <c r="A4031" s="2">
         <v>45669</v>
       </c>
-      <c r="B4031" s="11">
+      <c r="B4031" s="9">
         <v>252895716</v>
       </c>
-      <c r="C4031" s="11">
+      <c r="C4031" s="9">
         <v>5880357</v>
       </c>
       <c r="D4031" s="1">
@@ -81135,10 +81717,10 @@
       <c r="A4032" s="2">
         <v>45670</v>
       </c>
-      <c r="B4032" s="11">
+      <c r="B4032" s="9">
         <v>258501166</v>
       </c>
-      <c r="C4032" s="11">
+      <c r="C4032" s="9">
         <v>6018915</v>
       </c>
       <c r="D4032" s="1">
@@ -81155,10 +81737,10 @@
       <c r="A4033" s="2">
         <v>45671</v>
       </c>
-      <c r="B4033" s="11">
+      <c r="B4033" s="9">
         <v>243147162</v>
       </c>
-      <c r="C4033" s="11">
+      <c r="C4033" s="9">
         <v>5673897</v>
       </c>
       <c r="D4033" s="1">
@@ -81175,10 +81757,10 @@
       <c r="A4034" s="2">
         <v>45672</v>
       </c>
-      <c r="B4034" s="11">
+      <c r="B4034" s="9">
         <v>257313234</v>
       </c>
-      <c r="C4034" s="11">
+      <c r="C4034" s="9">
         <v>5982860</v>
       </c>
       <c r="D4034" s="1">
@@ -81195,10 +81777,10 @@
       <c r="A4035" s="2">
         <v>45673</v>
       </c>
-      <c r="B4035" s="11">
+      <c r="B4035" s="9">
         <v>259638937</v>
       </c>
-      <c r="C4035" s="11">
+      <c r="C4035" s="9">
         <v>6034194</v>
       </c>
       <c r="D4035" s="1">
@@ -81215,10 +81797,10 @@
       <c r="A4036" s="2">
         <v>45674</v>
       </c>
-      <c r="B4036" s="11">
+      <c r="B4036" s="9">
         <v>238380979</v>
       </c>
-      <c r="C4036" s="11">
+      <c r="C4036" s="9">
         <v>5538364</v>
       </c>
       <c r="D4036" s="1">
@@ -81235,10 +81817,10 @@
       <c r="A4037" s="2">
         <v>45675</v>
       </c>
-      <c r="B4037" s="11">
+      <c r="B4037" s="9">
         <v>220674822</v>
       </c>
-      <c r="C4037" s="11">
+      <c r="C4037" s="9">
         <v>5118818</v>
       </c>
       <c r="D4037" s="1">
@@ -81255,10 +81837,10 @@
       <c r="A4038" s="2">
         <v>45676</v>
       </c>
-      <c r="B4038" s="11">
+      <c r="B4038" s="9">
         <v>204787206</v>
       </c>
-      <c r="C4038" s="11">
+      <c r="C4038" s="9">
         <v>4749580</v>
       </c>
       <c r="D4038" s="1">
@@ -81275,10 +81857,10 @@
       <c r="A4039" s="2">
         <v>45677</v>
       </c>
-      <c r="B4039" s="11">
+      <c r="B4039" s="9">
         <v>222507802</v>
       </c>
-      <c r="C4039" s="11">
+      <c r="C4039" s="9">
         <v>5174356</v>
       </c>
       <c r="D4039" s="1">
@@ -81295,10 +81877,10 @@
       <c r="A4040" s="2">
         <v>45678</v>
       </c>
-      <c r="B4040" s="11">
+      <c r="B4040" s="9">
         <v>222134943</v>
       </c>
-      <c r="C4040" s="11">
+      <c r="C4040" s="9">
         <v>5164530</v>
       </c>
       <c r="D4040" s="1">
@@ -81315,10 +81897,10 @@
       <c r="A4041" s="2">
         <v>45679</v>
       </c>
-      <c r="B4041" s="11">
+      <c r="B4041" s="9">
         <v>220915242</v>
       </c>
-      <c r="C4041" s="11">
+      <c r="C4041" s="9">
         <v>5117438</v>
       </c>
       <c r="D4041" s="1">
@@ -81335,10 +81917,10 @@
       <c r="A4042" s="2">
         <v>45680</v>
       </c>
-      <c r="B4042" s="11">
+      <c r="B4042" s="9">
         <v>210367416</v>
       </c>
-      <c r="C4042" s="11">
+      <c r="C4042" s="9">
         <v>4881106</v>
       </c>
       <c r="D4042" s="1">
@@ -81355,10 +81937,10 @@
       <c r="A4043" s="2">
         <v>45681</v>
       </c>
-      <c r="B4043" s="11">
+      <c r="B4043" s="9">
         <v>210216990</v>
       </c>
-      <c r="C4043" s="11">
+      <c r="C4043" s="9">
         <v>4900588</v>
       </c>
       <c r="D4043" s="1">
@@ -81375,10 +81957,10 @@
       <c r="A4044" s="2">
         <v>45682</v>
       </c>
-      <c r="B4044" s="11">
+      <c r="B4044" s="9">
         <v>202606536</v>
       </c>
-      <c r="C4044" s="11">
+      <c r="C4044" s="9">
         <v>4719692</v>
       </c>
       <c r="D4044" s="1">
@@ -81395,10 +81977,10 @@
       <c r="A4045" s="2">
         <v>45683</v>
       </c>
-      <c r="B4045" s="11">
+      <c r="B4045" s="9">
         <v>192170510</v>
       </c>
-      <c r="C4045" s="11">
+      <c r="C4045" s="9">
         <v>4473654</v>
       </c>
       <c r="D4045" s="1">
@@ -81415,10 +81997,10 @@
       <c r="A4046" s="2">
         <v>45684</v>
       </c>
-      <c r="B4046" s="11">
+      <c r="B4046" s="9">
         <v>207966209</v>
       </c>
-      <c r="C4046" s="11">
+      <c r="C4046" s="9">
         <v>4842712</v>
       </c>
       <c r="D4046" s="1">
@@ -81435,10 +82017,10 @@
       <c r="A4047" s="2">
         <v>45685</v>
       </c>
-      <c r="B4047" s="11">
+      <c r="B4047" s="9">
         <v>225638926</v>
       </c>
-      <c r="C4047" s="11">
+      <c r="C4047" s="9">
         <v>5251942</v>
       </c>
       <c r="D4047" s="1">
@@ -81455,10 +82037,10 @@
       <c r="A4048" s="2">
         <v>45686</v>
       </c>
-      <c r="B4048" s="11">
+      <c r="B4048" s="9">
         <v>218980638</v>
       </c>
-      <c r="C4048" s="11">
+      <c r="C4048" s="9">
         <v>5106835</v>
       </c>
       <c r="D4048" s="1">
@@ -81475,10 +82057,10 @@
       <c r="A4049" s="2">
         <v>45687</v>
       </c>
-      <c r="B4049" s="11">
+      <c r="B4049" s="9">
         <v>216341233</v>
       </c>
-      <c r="C4049" s="11">
+      <c r="C4049" s="9">
         <v>5048696</v>
       </c>
       <c r="D4049" s="1">
@@ -81495,10 +82077,10 @@
       <c r="A4050" s="2">
         <v>45688</v>
       </c>
-      <c r="B4050" s="11">
+      <c r="B4050" s="9">
         <v>223968570</v>
       </c>
-      <c r="C4050" s="11">
+      <c r="C4050" s="9">
         <v>5218593</v>
       </c>
       <c r="D4050" s="1">
@@ -88195,10 +88777,10 @@
       <c r="A4385" s="2">
         <v>46023</v>
       </c>
-      <c r="B4385" s="14">
+      <c r="B4385" s="11">
         <v>257364662</v>
       </c>
-      <c r="C4385" s="14">
+      <c r="C4385" s="11">
         <v>6061553</v>
       </c>
       <c r="D4385" s="1">
@@ -88215,10 +88797,10 @@
       <c r="A4386" s="2">
         <v>46024</v>
       </c>
-      <c r="B4386" s="12">
+      <c r="B4386" s="10">
         <v>274500997.00000006</v>
       </c>
-      <c r="C4386" s="12">
+      <c r="C4386" s="10">
         <v>6467002</v>
       </c>
       <c r="D4386" s="1">
@@ -88235,10 +88817,10 @@
       <c r="A4387" s="2">
         <v>46025</v>
       </c>
-      <c r="B4387" s="14">
+      <c r="B4387" s="11">
         <v>251961901</v>
       </c>
-      <c r="C4387" s="14">
+      <c r="C4387" s="11">
         <v>5941863</v>
       </c>
       <c r="D4387" s="1">
@@ -88255,10 +88837,10 @@
       <c r="A4388" s="2">
         <v>46026</v>
       </c>
-      <c r="B4388" s="12">
+      <c r="B4388" s="10">
         <v>225520384</v>
       </c>
-      <c r="C4388" s="12">
+      <c r="C4388" s="10">
         <v>5319928</v>
       </c>
       <c r="D4388" s="1">
@@ -88275,10 +88857,10 @@
       <c r="A4389" s="2">
         <v>46027</v>
       </c>
-      <c r="B4389" s="14">
+      <c r="B4389" s="11">
         <v>240901097</v>
       </c>
-      <c r="C4389" s="14">
+      <c r="C4389" s="11">
         <v>5679188</v>
       </c>
       <c r="D4389" s="1">
@@ -88295,10 +88877,10 @@
       <c r="A4390" s="2">
         <v>46028</v>
       </c>
-      <c r="B4390" s="12">
+      <c r="B4390" s="10">
         <v>245656466</v>
       </c>
-      <c r="C4390" s="12">
+      <c r="C4390" s="10">
         <v>5791101</v>
       </c>
       <c r="D4390" s="1">
@@ -88315,10 +88897,10 @@
       <c r="A4391" s="2">
         <v>46029</v>
       </c>
-      <c r="B4391" s="14">
+      <c r="B4391" s="11">
         <v>244150598</v>
       </c>
-      <c r="C4391" s="14">
+      <c r="C4391" s="11">
         <v>5765987</v>
       </c>
       <c r="D4391" s="1">
@@ -88335,10 +88917,10 @@
       <c r="A4392" s="2">
         <v>46030</v>
       </c>
-      <c r="B4392" s="12">
+      <c r="B4392" s="10">
         <v>260889766</v>
       </c>
-      <c r="C4392" s="12">
+      <c r="C4392" s="10">
         <v>6148550</v>
       </c>
       <c r="D4392" s="1">
@@ -88355,10 +88937,10 @@
       <c r="A4393" s="2">
         <v>46031</v>
       </c>
-      <c r="B4393" s="14">
+      <c r="B4393" s="11">
         <v>247833352</v>
       </c>
-      <c r="C4393" s="14">
+      <c r="C4393" s="11">
         <v>5821146</v>
       </c>
       <c r="D4393" s="1">
@@ -88375,10 +88957,10 @@
       <c r="A4394" s="2">
         <v>46032</v>
       </c>
-      <c r="B4394" s="12">
+      <c r="B4394" s="10">
         <v>222835111</v>
       </c>
-      <c r="C4394" s="12">
+      <c r="C4394" s="10">
         <v>5236198</v>
       </c>
       <c r="D4394" s="1">
@@ -88395,10 +88977,10 @@
       <c r="A4395" s="2">
         <v>46033</v>
       </c>
-      <c r="B4395" s="14">
+      <c r="B4395" s="11">
         <v>239679167.00000003</v>
       </c>
-      <c r="C4395" s="14">
+      <c r="C4395" s="11">
         <v>5638946</v>
       </c>
       <c r="D4395" s="1">
@@ -88415,10 +88997,10 @@
       <c r="A4396" s="2">
         <v>46034</v>
       </c>
-      <c r="B4396" s="12">
+      <c r="B4396" s="10">
         <v>261954835</v>
       </c>
-      <c r="C4396" s="12">
+      <c r="C4396" s="10">
         <v>6171121</v>
       </c>
       <c r="D4396" s="1">
@@ -88435,10 +89017,10 @@
       <c r="A4397" s="2">
         <v>46035</v>
       </c>
-      <c r="B4397" s="14">
+      <c r="B4397" s="11">
         <v>248317721.00000003</v>
       </c>
-      <c r="C4397" s="14">
+      <c r="C4397" s="11">
         <v>5852190</v>
       </c>
       <c r="D4397" s="1">
@@ -88455,10 +89037,10 @@
       <c r="A4398" s="2">
         <v>46036</v>
       </c>
-      <c r="B4398" s="12">
+      <c r="B4398" s="10">
         <v>251819854</v>
       </c>
-      <c r="C4398" s="12">
+      <c r="C4398" s="10">
         <v>5923777</v>
       </c>
       <c r="D4398" s="1">
@@ -88475,10 +89057,10 @@
       <c r="A4399" s="2">
         <v>46037</v>
       </c>
-      <c r="B4399" s="14">
+      <c r="B4399" s="11">
         <v>217614900</v>
       </c>
-      <c r="C4399" s="14">
+      <c r="C4399" s="11">
         <v>5124740</v>
       </c>
       <c r="D4399" s="1">
@@ -88495,10 +89077,10 @@
       <c r="A4400" s="2">
         <v>46038</v>
       </c>
-      <c r="B4400" s="12">
+      <c r="B4400" s="10">
         <v>201245247</v>
       </c>
-      <c r="C4400" s="12">
+      <c r="C4400" s="10">
         <v>4742092</v>
       </c>
       <c r="D4400" s="1">
@@ -88515,10 +89097,10 @@
       <c r="A4401" s="2">
         <v>46039</v>
       </c>
-      <c r="B4401" s="14">
+      <c r="B4401" s="11">
         <v>184101005</v>
       </c>
-      <c r="C4401" s="14">
+      <c r="C4401" s="11">
         <v>4337895</v>
       </c>
       <c r="D4401" s="1">
@@ -88535,10 +89117,10 @@
       <c r="A4402" s="2">
         <v>46040</v>
       </c>
-      <c r="B4402" s="12">
+      <c r="B4402" s="10">
         <v>180776593</v>
       </c>
-      <c r="C4402" s="12">
+      <c r="C4402" s="10">
         <v>4256986</v>
       </c>
       <c r="D4402" s="1">
@@ -88555,10 +89137,10 @@
       <c r="A4403" s="2">
         <v>46041</v>
       </c>
-      <c r="B4403" s="14">
+      <c r="B4403" s="11">
         <v>225251918</v>
       </c>
-      <c r="C4403" s="14">
+      <c r="C4403" s="11">
         <v>5295344</v>
       </c>
       <c r="D4403" s="1">
@@ -88575,10 +89157,10 @@
       <c r="A4404" s="2">
         <v>46042</v>
       </c>
-      <c r="B4404" s="12">
+      <c r="B4404" s="10">
         <v>255373792.00000003</v>
       </c>
-      <c r="C4404" s="12">
+      <c r="C4404" s="10">
         <v>6007097</v>
       </c>
       <c r="D4404" s="1">
@@ -88595,10 +89177,10 @@
       <c r="A4405" s="2">
         <v>46043</v>
       </c>
-      <c r="B4405" s="14">
+      <c r="B4405" s="11">
         <v>279886847</v>
       </c>
-      <c r="C4405" s="14">
+      <c r="C4405" s="11">
         <v>6589787</v>
       </c>
       <c r="D4405" s="1">
@@ -88615,10 +89197,10 @@
       <c r="A4406" s="2">
         <v>46044</v>
       </c>
-      <c r="B4406" s="12">
+      <c r="B4406" s="10">
         <v>294629715</v>
       </c>
-      <c r="C4406" s="12">
+      <c r="C4406" s="10">
         <v>6927724</v>
       </c>
       <c r="D4406" s="1">
@@ -88635,10 +89217,10 @@
       <c r="A4407" s="2">
         <v>46045</v>
       </c>
-      <c r="B4407" s="14">
+      <c r="B4407" s="11">
         <v>274764448.00000006</v>
       </c>
-      <c r="C4407" s="14">
+      <c r="C4407" s="11">
         <v>6447778</v>
       </c>
       <c r="D4407" s="1">
@@ -88655,10 +89237,10 @@
       <c r="A4408" s="2">
         <v>46046</v>
       </c>
-      <c r="B4408" s="12">
+      <c r="B4408" s="10">
         <v>253507026</v>
       </c>
-      <c r="C4408" s="12">
+      <c r="C4408" s="10">
         <v>5946847</v>
       </c>
       <c r="D4408" s="1">
@@ -88675,10 +89257,10 @@
       <c r="A4409" s="2">
         <v>46047</v>
       </c>
-      <c r="B4409" s="14">
+      <c r="B4409" s="11">
         <v>243523175.00000003</v>
       </c>
-      <c r="C4409" s="14">
+      <c r="C4409" s="11">
         <v>5719679</v>
       </c>
       <c r="D4409" s="1">
@@ -88695,10 +89277,10 @@
       <c r="A4410" s="2">
         <v>46048</v>
       </c>
-      <c r="B4410" s="12">
+      <c r="B4410" s="10">
         <v>271826967</v>
       </c>
-      <c r="C4410" s="12">
+      <c r="C4410" s="10">
         <v>6398362</v>
       </c>
       <c r="D4410" s="1">
@@ -88715,10 +89297,10 @@
       <c r="A4411" s="2">
         <v>46049</v>
       </c>
-      <c r="B4411" s="14">
+      <c r="B4411" s="11">
         <v>261393242</v>
       </c>
-      <c r="C4411" s="14">
+      <c r="C4411" s="11">
         <v>6152088</v>
       </c>
       <c r="D4411" s="1">
@@ -88735,10 +89317,10 @@
       <c r="A4412" s="2">
         <v>46050</v>
       </c>
-      <c r="B4412" s="12">
+      <c r="B4412" s="10">
         <v>269289300</v>
       </c>
-      <c r="C4412" s="12">
+      <c r="C4412" s="10">
         <v>6331629</v>
       </c>
       <c r="D4412" s="1">
@@ -88755,10 +89337,10 @@
       <c r="A4413" s="2">
         <v>46051</v>
       </c>
-      <c r="B4413" s="14">
+      <c r="B4413" s="11">
         <v>268775126</v>
       </c>
-      <c r="C4413" s="14">
+      <c r="C4413" s="11">
         <v>6319587</v>
       </c>
       <c r="D4413" s="1">
@@ -88775,10 +89357,10 @@
       <c r="A4414" s="2">
         <v>46052</v>
       </c>
-      <c r="B4414" s="12">
+      <c r="B4414" s="10">
         <v>277327142</v>
       </c>
-      <c r="C4414" s="12">
+      <c r="C4414" s="10">
         <v>6523224</v>
       </c>
       <c r="D4414" s="1">
@@ -88795,10 +89377,10 @@
       <c r="A4415" s="2">
         <v>46053</v>
       </c>
-      <c r="B4415" s="14">
+      <c r="B4415" s="11">
         <v>248098816</v>
       </c>
-      <c r="C4415" s="14">
+      <c r="C4415" s="11">
         <v>5806316</v>
       </c>
       <c r="D4415" s="1">
@@ -88811,27 +89393,27 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="4416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4416" s="7">
         <v>46054</v>
       </c>
-      <c r="B4416" s="12">
+      <c r="B4416" s="14">
         <v>231460034</v>
       </c>
-      <c r="C4416" s="12">
+      <c r="C4416" s="14">
         <v>5410295</v>
       </c>
-      <c r="D4416" s="9">
+      <c r="D4416" s="1">
         <v>-0.3</v>
       </c>
-      <c r="E4416" s="10">
+      <c r="E4416" s="5">
         <v>-3.9</v>
       </c>
-      <c r="F4416" s="10">
+      <c r="F4416" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="4417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4417" s="7">
         <v>46055</v>
       </c>
@@ -88841,117 +89423,117 @@
       <c r="C4417" s="14">
         <v>6158909</v>
       </c>
-      <c r="D4417" s="13">
+      <c r="D4417" s="1">
         <v>-1.5</v>
       </c>
-      <c r="E4417" s="10">
+      <c r="E4417" s="5">
         <v>-6</v>
       </c>
-      <c r="F4417" s="10">
+      <c r="F4417" s="5">
         <v>2.7</v>
       </c>
     </row>
-    <row r="4418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4418" s="7">
         <v>46056</v>
       </c>
-      <c r="B4418" s="12">
+      <c r="B4418" s="14">
         <v>253722193</v>
       </c>
-      <c r="C4418" s="12">
+      <c r="C4418" s="14">
         <v>5941039</v>
       </c>
-      <c r="D4418" s="9">
+      <c r="D4418" s="1">
         <v>1.2</v>
       </c>
-      <c r="E4418" s="10">
+      <c r="E4418" s="5">
         <v>-5.4</v>
       </c>
-      <c r="F4418" s="10">
+      <c r="F4418" s="5">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="4419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4419" s="7">
         <v>46057</v>
       </c>
       <c r="B4419" s="14">
-        <v>236014580.00000003</v>
+        <v>236014580</v>
       </c>
       <c r="C4419" s="14">
         <v>5541039</v>
       </c>
-      <c r="D4419" s="13">
+      <c r="D4419" s="1">
         <v>3</v>
       </c>
-      <c r="E4419" s="10">
+      <c r="E4419" s="5">
         <v>-3.3</v>
       </c>
-      <c r="F4419" s="10">
+      <c r="F4419" s="5">
         <v>10.4</v>
       </c>
     </row>
-    <row r="4420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4420" s="7">
         <v>46058</v>
       </c>
-      <c r="B4420" s="12">
+      <c r="B4420" s="14">
         <v>218842000</v>
       </c>
-      <c r="C4420" s="12">
+      <c r="C4420" s="14">
         <v>5145541</v>
       </c>
-      <c r="D4420" s="9">
+      <c r="D4420" s="1">
         <v>6.1</v>
       </c>
-      <c r="E4420" s="10">
+      <c r="E4420" s="5">
         <v>-1.6</v>
       </c>
-      <c r="F4420" s="10">
+      <c r="F4420" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="4421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4421" s="7">
         <v>46059</v>
       </c>
       <c r="B4421" s="14">
-        <v>225019493.00000003</v>
+        <v>225019493</v>
       </c>
       <c r="C4421" s="14">
         <v>5289603</v>
       </c>
-      <c r="D4421" s="13">
+      <c r="D4421" s="1">
         <v>2.9</v>
       </c>
-      <c r="E4421" s="10">
+      <c r="E4421" s="5">
         <v>0.1</v>
       </c>
-      <c r="F4421" s="10">
+      <c r="F4421" s="5">
         <v>7.2</v>
       </c>
     </row>
-    <row r="4422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4422" s="7">
         <v>46060</v>
       </c>
-      <c r="B4422" s="12">
-        <v>239694610.00000003</v>
-      </c>
-      <c r="C4422" s="12">
+      <c r="B4422" s="14">
+        <v>239694610</v>
+      </c>
+      <c r="C4422" s="14">
         <v>5621023</v>
       </c>
-      <c r="D4422" s="9">
+      <c r="D4422" s="1">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="E4422" s="15">
+      <c r="E4422" s="12">
         <v>-5.8</v>
       </c>
-      <c r="F4422" s="15">
+      <c r="F4422" s="12">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4423" s="7">
         <v>46061</v>
       </c>
@@ -88961,37 +89543,37 @@
       <c r="C4423" s="14">
         <v>6107516</v>
       </c>
-      <c r="D4423" s="13">
+      <c r="D4423" s="1">
         <v>-5</v>
       </c>
-      <c r="E4423" s="15">
+      <c r="E4423" s="12">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="F4423" s="15">
+      <c r="F4423" s="12">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="4424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4424" s="7">
         <v>46062</v>
       </c>
-      <c r="B4424" s="12">
+      <c r="B4424" s="14">
         <v>257402574</v>
       </c>
-      <c r="C4424" s="12">
+      <c r="C4424" s="14">
         <v>6037724</v>
       </c>
-      <c r="D4424" s="9">
+      <c r="D4424" s="1">
         <v>0.4</v>
       </c>
-      <c r="E4424" s="15">
+      <c r="E4424" s="12">
         <v>-7</v>
       </c>
-      <c r="F4424" s="15">
+      <c r="F4424" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="4425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4425" s="7">
         <v>46063</v>
       </c>
@@ -89001,37 +89583,37 @@
       <c r="C4425" s="14">
         <v>5896186</v>
       </c>
-      <c r="D4425" s="13">
+      <c r="D4425" s="1">
         <v>2.8</v>
       </c>
-      <c r="E4425" s="15">
+      <c r="E4425" s="12">
         <v>-3</v>
       </c>
-      <c r="F4425" s="15">
+      <c r="F4425" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="4426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4426" s="7">
         <v>46064</v>
       </c>
-      <c r="B4426" s="12">
+      <c r="B4426" s="14">
         <v>233079151</v>
       </c>
-      <c r="C4426" s="12">
+      <c r="C4426" s="14">
         <v>5440980</v>
       </c>
-      <c r="D4426" s="9">
+      <c r="D4426" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E4426" s="15">
+      <c r="E4426" s="12">
         <v>1</v>
       </c>
-      <c r="F4426" s="15">
+      <c r="F4426" s="12">
         <v>9</v>
       </c>
     </row>
-    <row r="4427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4427" s="7">
         <v>46065</v>
       </c>
@@ -89041,27 +89623,33 @@
       <c r="C4427" s="14">
         <v>5255214</v>
       </c>
-      <c r="D4427" s="13">
+      <c r="D4427" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E4427" s="15">
+      <c r="E4427" s="12">
         <v>-2</v>
       </c>
-      <c r="F4427" s="15">
+      <c r="F4427" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="4428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4428" s="7">
         <v>46066</v>
       </c>
-      <c r="B4428" s="14"/>
-      <c r="C4428" s="14"/>
-      <c r="D4428" s="10"/>
-      <c r="E4428" s="15">
+      <c r="B4428" s="14">
+        <v>212685300</v>
+      </c>
+      <c r="C4428" s="14">
+        <v>4995680</v>
+      </c>
+      <c r="D4428" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E4428" s="12">
         <v>-2</v>
       </c>
-      <c r="F4428" s="15">
+      <c r="F4428" s="12">
         <v>15</v>
       </c>
     </row>
@@ -89069,11 +89657,19 @@
       <c r="A4429" s="7">
         <v>46067</v>
       </c>
-      <c r="D4429" s="10"/>
-      <c r="E4429" s="15">
+      <c r="B4429" s="14">
+        <v>188537193</v>
+      </c>
+      <c r="C4429" s="14">
+        <v>4430044</v>
+      </c>
+      <c r="D4429" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="E4429" s="12">
         <v>1</v>
       </c>
-      <c r="F4429" s="15">
+      <c r="F4429" s="12">
         <v>16</v>
       </c>
     </row>
@@ -89081,11 +89677,19 @@
       <c r="A4430" s="7">
         <v>46068</v>
       </c>
-      <c r="D4430" s="10"/>
-      <c r="E4430" s="15">
+      <c r="B4430" s="14">
+        <v>165558989</v>
+      </c>
+      <c r="C4430" s="14">
+        <v>3883804</v>
+      </c>
+      <c r="D4430" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="E4430" s="12">
         <v>2</v>
       </c>
-      <c r="F4430" s="15">
+      <c r="F4430" s="12">
         <v>15</v>
       </c>
     </row>
@@ -89093,10 +89697,19 @@
       <c r="A4431" s="2">
         <v>46069</v>
       </c>
-      <c r="E4431" s="16">
+      <c r="B4431" s="14">
+        <v>174403457</v>
+      </c>
+      <c r="C4431" s="14">
+        <v>4088389</v>
+      </c>
+      <c r="D4431" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="E4431" s="13">
         <v>-1</v>
       </c>
-      <c r="F4431" s="16">
+      <c r="F4431" s="13">
         <v>12</v>
       </c>
     </row>
@@ -89104,10 +89717,19 @@
       <c r="A4432" s="2">
         <v>46070</v>
       </c>
-      <c r="E4432" s="16">
+      <c r="B4432" s="14">
+        <v>164180373</v>
+      </c>
+      <c r="C4432" s="14">
+        <v>3844412</v>
+      </c>
+      <c r="D4432" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E4432" s="13">
         <v>-1</v>
       </c>
-      <c r="F4432" s="16">
+      <c r="F4432" s="13">
         <v>14</v>
       </c>
     </row>
@@ -89115,10 +89737,19 @@
       <c r="A4433" s="2">
         <v>46071</v>
       </c>
-      <c r="E4433" s="16">
+      <c r="B4433" s="14">
+        <v>169013046</v>
+      </c>
+      <c r="C4433" s="14">
+        <v>3964379</v>
+      </c>
+      <c r="D4433" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E4433" s="13">
         <v>-1</v>
       </c>
-      <c r="F4433" s="16">
+      <c r="F4433" s="13">
         <v>13</v>
       </c>
     </row>
@@ -89126,98 +89757,110 @@
       <c r="A4434" s="2">
         <v>46072</v>
       </c>
-      <c r="E4434" s="16">
-        <v>-2</v>
-      </c>
-      <c r="F4434" s="16">
-        <v>14</v>
+      <c r="E4434" s="13">
+        <v>-4</v>
+      </c>
+      <c r="F4434" s="13">
+        <v>12</v>
       </c>
     </row>
     <row r="4435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4435" s="2">
         <v>46073</v>
       </c>
-      <c r="E4435" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4435" s="16">
-        <v>17</v>
+      <c r="E4435" s="13">
+        <v>-2</v>
+      </c>
+      <c r="F4435" s="13">
+        <v>16</v>
       </c>
     </row>
     <row r="4436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4436" s="2">
         <v>46074</v>
       </c>
-      <c r="E4436" s="16">
-        <v>3</v>
-      </c>
-      <c r="F4436" s="16">
-        <v>19</v>
+      <c r="E4436" s="13">
+        <v>2</v>
+      </c>
+      <c r="F4436" s="13">
+        <v>18</v>
       </c>
     </row>
     <row r="4437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4437" s="2">
         <v>46075</v>
       </c>
-      <c r="E4437" s="16">
-        <v>5</v>
-      </c>
-      <c r="F4437" s="16">
-        <v>16</v>
+      <c r="E4437" s="13">
+        <v>8</v>
+      </c>
+      <c r="F4437" s="13">
+        <v>18</v>
       </c>
     </row>
     <row r="4438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4438" s="2">
         <v>46076</v>
       </c>
-      <c r="E4438" s="16">
-        <v>2</v>
-      </c>
-      <c r="F4438" s="16">
-        <v>16</v>
+      <c r="E4438" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4438" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="4439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4439" s="2">
         <v>46077</v>
       </c>
-      <c r="E4439" s="16">
-        <v>3</v>
-      </c>
-      <c r="F4439" s="16">
-        <v>12</v>
+      <c r="E4439" s="13">
+        <v>-1</v>
+      </c>
+      <c r="F4439" s="13">
+        <v>5</v>
       </c>
     </row>
     <row r="4440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4440" s="2">
         <v>46078</v>
       </c>
-      <c r="E4440" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4440" s="16">
-        <v>11</v>
+      <c r="E4440" s="13">
+        <v>-1</v>
+      </c>
+      <c r="F4440" s="13">
+        <v>10</v>
       </c>
     </row>
     <row r="4441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4441" s="2">
         <v>46079</v>
       </c>
-      <c r="E4441" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4441" s="16">
-        <v>11</v>
+      <c r="E4441" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4441" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="4442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4442" s="2">
         <v>46080</v>
       </c>
+      <c r="E4442" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4442" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="4443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4443" s="2">
         <v>46081</v>
+      </c>
+      <c r="E4443" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4443" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="4444" spans="1:6" x14ac:dyDescent="0.3">

--- a/일일공급량_raw.xlsx
+++ b/일일공급량_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2026\streamlit_study\MM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9884494-FEE7-4F6B-BEBC-27B55FE83E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{547AA1FE-4B20-433D-A152-069107986DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA341F54-7076-456B-B2A5-63C21B48371E}"/>
+    <workbookView xWindow="-28920" yWindow="585" windowWidth="29040" windowHeight="15720" xr2:uid="{EA341F54-7076-456B-B2A5-63C21B48371E}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -544,6 +544,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,14 +728,14 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1080,10 +1095,10 @@
   <dimension ref="A1:F4749"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4418" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4431" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4433" sqref="H4433"/>
+      <selection pane="bottomRight" activeCell="K4451" sqref="K4451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -88753,7 +88768,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="4384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4384" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4384" s="2">
         <v>46022</v>
       </c>
@@ -88773,7 +88788,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4385" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4385" s="2">
         <v>46023</v>
       </c>
@@ -88783,17 +88798,17 @@
       <c r="C4385" s="11">
         <v>6061553</v>
       </c>
-      <c r="D4385" s="1">
+      <c r="D4385" s="14">
         <v>-3.8</v>
       </c>
-      <c r="E4385" s="1">
+      <c r="E4385" s="14">
         <v>-6.3</v>
       </c>
-      <c r="F4385" s="1">
+      <c r="F4385" s="14">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="4386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4386" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4386" s="2">
         <v>46024</v>
       </c>
@@ -88803,17 +88818,17 @@
       <c r="C4386" s="10">
         <v>6467002</v>
       </c>
-      <c r="D4386" s="1">
+      <c r="D4386" s="14">
         <v>-4.3</v>
       </c>
-      <c r="E4386" s="1">
+      <c r="E4386" s="14">
         <v>-7.9</v>
       </c>
-      <c r="F4386" s="1">
+      <c r="F4386" s="14">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="4387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4387" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4387" s="2">
         <v>46025</v>
       </c>
@@ -88823,17 +88838,17 @@
       <c r="C4387" s="11">
         <v>5941863</v>
       </c>
-      <c r="D4387" s="1">
+      <c r="D4387" s="14">
         <v>-0.9</v>
       </c>
-      <c r="E4387" s="1">
+      <c r="E4387" s="14">
         <v>-5.9</v>
       </c>
-      <c r="F4387" s="1">
+      <c r="F4387" s="14">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="4388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4388" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4388" s="2">
         <v>46026</v>
       </c>
@@ -88843,17 +88858,17 @@
       <c r="C4388" s="10">
         <v>5319928</v>
       </c>
-      <c r="D4388" s="1">
+      <c r="D4388" s="14">
         <v>3.4</v>
       </c>
-      <c r="E4388" s="1">
+      <c r="E4388" s="14">
         <v>-1.7</v>
       </c>
-      <c r="F4388" s="1">
+      <c r="F4388" s="14">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="4389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4389" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4389" s="2">
         <v>46027</v>
       </c>
@@ -88863,17 +88878,17 @@
       <c r="C4389" s="11">
         <v>5679188</v>
       </c>
-      <c r="D4389" s="1">
+      <c r="D4389" s="14">
         <v>2.8</v>
       </c>
-      <c r="E4389" s="1">
+      <c r="E4389" s="14">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F4389" s="1">
+      <c r="F4389" s="14">
         <v>6.4</v>
       </c>
     </row>
-    <row r="4390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4390" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4390" s="2">
         <v>46028</v>
       </c>
@@ -88883,17 +88898,17 @@
       <c r="C4390" s="10">
         <v>5791101</v>
       </c>
-      <c r="D4390" s="1">
+      <c r="D4390" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E4390" s="1">
+      <c r="E4390" s="14">
         <v>-2.1</v>
       </c>
-      <c r="F4390" s="1">
+      <c r="F4390" s="14">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="4391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4391" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4391" s="2">
         <v>46029</v>
       </c>
@@ -88903,17 +88918,17 @@
       <c r="C4391" s="11">
         <v>5765987</v>
       </c>
-      <c r="D4391" s="1">
+      <c r="D4391" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E4391" s="1">
+      <c r="E4391" s="14">
         <v>-2.6</v>
       </c>
-      <c r="F4391" s="1">
+      <c r="F4391" s="14">
         <v>8.4</v>
       </c>
     </row>
-    <row r="4392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4392" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4392" s="2">
         <v>46030</v>
       </c>
@@ -88923,17 +88938,17 @@
       <c r="C4392" s="10">
         <v>6148550</v>
       </c>
-      <c r="D4392" s="1">
+      <c r="D4392" s="14">
         <v>-1.6</v>
       </c>
-      <c r="E4392" s="1">
+      <c r="E4392" s="14">
         <v>-4.7</v>
       </c>
-      <c r="F4392" s="1">
+      <c r="F4392" s="14">
         <v>2.9</v>
       </c>
     </row>
-    <row r="4393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4393" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4393" s="2">
         <v>46031</v>
       </c>
@@ -88943,17 +88958,17 @@
       <c r="C4393" s="11">
         <v>5821146</v>
       </c>
-      <c r="D4393" s="1">
+      <c r="D4393" s="14">
         <v>0.4</v>
       </c>
-      <c r="E4393" s="1">
+      <c r="E4393" s="14">
         <v>-5.9</v>
       </c>
-      <c r="F4393" s="1">
+      <c r="F4393" s="14">
         <v>7.7</v>
       </c>
     </row>
-    <row r="4394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4394" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4394" s="2">
         <v>46032</v>
       </c>
@@ -88963,17 +88978,17 @@
       <c r="C4394" s="10">
         <v>5236198</v>
       </c>
-      <c r="D4394" s="1">
+      <c r="D4394" s="14">
         <v>3.4</v>
       </c>
-      <c r="E4394" s="1">
+      <c r="E4394" s="14">
         <v>-2.4</v>
       </c>
-      <c r="F4394" s="1">
+      <c r="F4394" s="14">
         <v>11.9</v>
       </c>
     </row>
-    <row r="4395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4395" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4395" s="2">
         <v>46033</v>
       </c>
@@ -88983,17 +88998,17 @@
       <c r="C4395" s="11">
         <v>5638946</v>
       </c>
-      <c r="D4395" s="1">
+      <c r="D4395" s="14">
         <v>-2.4</v>
       </c>
-      <c r="E4395" s="1">
+      <c r="E4395" s="14">
         <v>-5.7</v>
       </c>
-      <c r="F4395" s="1">
+      <c r="F4395" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4396" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4396" s="2">
         <v>46034</v>
       </c>
@@ -89003,17 +89018,17 @@
       <c r="C4396" s="10">
         <v>6171121</v>
       </c>
-      <c r="D4396" s="1">
+      <c r="D4396" s="14">
         <v>-1.8</v>
       </c>
-      <c r="E4396" s="1">
+      <c r="E4396" s="14">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="F4396" s="1">
+      <c r="F4396" s="14">
         <v>5.3</v>
       </c>
     </row>
-    <row r="4397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4397" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4397" s="2">
         <v>46035</v>
       </c>
@@ -89023,17 +89038,17 @@
       <c r="C4397" s="11">
         <v>5852190</v>
       </c>
-      <c r="D4397" s="1">
+      <c r="D4397" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E4397" s="1">
+      <c r="E4397" s="14">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="F4397" s="1">
+      <c r="F4397" s="14">
         <v>5.9</v>
       </c>
     </row>
-    <row r="4398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4398" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4398" s="2">
         <v>46036</v>
       </c>
@@ -89043,17 +89058,17 @@
       <c r="C4398" s="10">
         <v>5923777</v>
       </c>
-      <c r="D4398" s="1">
+      <c r="D4398" s="14">
         <v>0.4</v>
       </c>
-      <c r="E4398" s="1">
+      <c r="E4398" s="14">
         <v>-5.4</v>
       </c>
-      <c r="F4398" s="1">
+      <c r="F4398" s="14">
         <v>7.4</v>
       </c>
     </row>
-    <row r="4399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4399" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4399" s="2">
         <v>46037</v>
       </c>
@@ -89063,17 +89078,17 @@
       <c r="C4399" s="11">
         <v>5124740</v>
       </c>
-      <c r="D4399" s="1">
+      <c r="D4399" s="14">
         <v>7.8</v>
       </c>
-      <c r="E4399" s="1">
+      <c r="E4399" s="14">
         <v>-1</v>
       </c>
-      <c r="F4399" s="1">
+      <c r="F4399" s="14">
         <v>18</v>
       </c>
     </row>
-    <row r="4400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4400" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4400" s="2">
         <v>46038</v>
       </c>
@@ -89083,17 +89098,17 @@
       <c r="C4400" s="10">
         <v>4742092</v>
       </c>
-      <c r="D4400" s="1">
+      <c r="D4400" s="14">
         <v>6.6</v>
       </c>
-      <c r="E4400" s="1">
+      <c r="E4400" s="14">
         <v>-0.9</v>
       </c>
-      <c r="F4400" s="1">
+      <c r="F4400" s="14">
         <v>15.8</v>
       </c>
     </row>
-    <row r="4401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4401" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4401" s="2">
         <v>46039</v>
       </c>
@@ -89103,17 +89118,17 @@
       <c r="C4401" s="11">
         <v>4337895</v>
       </c>
-      <c r="D4401" s="1">
+      <c r="D4401" s="14">
         <v>5.5</v>
       </c>
-      <c r="E4401" s="1">
+      <c r="E4401" s="14">
         <v>0.6</v>
       </c>
-      <c r="F4401" s="1">
+      <c r="F4401" s="14">
         <v>12.6</v>
       </c>
     </row>
-    <row r="4402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4402" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4402" s="2">
         <v>46040</v>
       </c>
@@ -89123,17 +89138,17 @@
       <c r="C4402" s="10">
         <v>4256986</v>
       </c>
-      <c r="D4402" s="1">
+      <c r="D4402" s="14">
         <v>4.7</v>
       </c>
-      <c r="E4402" s="1">
+      <c r="E4402" s="14">
         <v>-2.7</v>
       </c>
-      <c r="F4402" s="1">
+      <c r="F4402" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="4403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4403" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4403" s="2">
         <v>46041</v>
       </c>
@@ -89143,17 +89158,17 @@
       <c r="C4403" s="11">
         <v>5295344</v>
       </c>
-      <c r="D4403" s="1">
+      <c r="D4403" s="14">
         <v>2.6</v>
       </c>
-      <c r="E4403" s="1">
+      <c r="E4403" s="14">
         <v>-2.9</v>
       </c>
-      <c r="F4403" s="1">
+      <c r="F4403" s="14">
         <v>6.1</v>
       </c>
     </row>
-    <row r="4404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4404" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4404" s="2">
         <v>46042</v>
       </c>
@@ -89163,17 +89178,17 @@
       <c r="C4404" s="10">
         <v>6007097</v>
       </c>
-      <c r="D4404" s="1">
+      <c r="D4404" s="14">
         <v>-1.8</v>
       </c>
-      <c r="E4404" s="1">
+      <c r="E4404" s="14">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="F4404" s="1">
+      <c r="F4404" s="14">
         <v>4.3</v>
       </c>
     </row>
-    <row r="4405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4405" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4405" s="2">
         <v>46043</v>
       </c>
@@ -89183,17 +89198,17 @@
       <c r="C4405" s="11">
         <v>6589787</v>
       </c>
-      <c r="D4405" s="1">
+      <c r="D4405" s="14">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="E4405" s="1">
+      <c r="E4405" s="14">
         <v>-7.3</v>
       </c>
-      <c r="F4405" s="1">
+      <c r="F4405" s="14">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="4406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4406" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4406" s="2">
         <v>46044</v>
       </c>
@@ -89203,17 +89218,17 @@
       <c r="C4406" s="10">
         <v>6927724</v>
       </c>
-      <c r="D4406" s="1">
+      <c r="D4406" s="14">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="E4406" s="1">
+      <c r="E4406" s="14">
         <v>-8.5</v>
       </c>
-      <c r="F4406" s="1">
+      <c r="F4406" s="14">
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="4407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4407" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4407" s="2">
         <v>46045</v>
       </c>
@@ -89223,17 +89238,17 @@
       <c r="C4407" s="11">
         <v>6447778</v>
       </c>
-      <c r="D4407" s="1">
+      <c r="D4407" s="14">
         <v>-1.6</v>
       </c>
-      <c r="E4407" s="1">
+      <c r="E4407" s="14">
         <v>-6.4</v>
       </c>
-      <c r="F4407" s="1">
+      <c r="F4407" s="14">
         <v>3.7</v>
       </c>
     </row>
-    <row r="4408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4408" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4408" s="2">
         <v>46046</v>
       </c>
@@ -89243,17 +89258,17 @@
       <c r="C4408" s="10">
         <v>5946847</v>
       </c>
-      <c r="D4408" s="1">
+      <c r="D4408" s="14">
         <v>-1.2</v>
       </c>
-      <c r="E4408" s="1">
+      <c r="E4408" s="14">
         <v>-4.3</v>
       </c>
-      <c r="F4408" s="1">
+      <c r="F4408" s="14">
         <v>2.6</v>
       </c>
     </row>
-    <row r="4409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4409" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4409" s="2">
         <v>46047</v>
       </c>
@@ -89263,17 +89278,17 @@
       <c r="C4409" s="11">
         <v>5719679</v>
       </c>
-      <c r="D4409" s="1">
+      <c r="D4409" s="14">
         <v>-1.3</v>
       </c>
-      <c r="E4409" s="1">
+      <c r="E4409" s="14">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="F4409" s="1">
+      <c r="F4409" s="14">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="4410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4410" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4410" s="2">
         <v>46048</v>
       </c>
@@ -89283,17 +89298,17 @@
       <c r="C4410" s="10">
         <v>6398362</v>
       </c>
-      <c r="D4410" s="1">
+      <c r="D4410" s="14">
         <v>-1.3</v>
       </c>
-      <c r="E4410" s="1">
+      <c r="E4410" s="14">
         <v>-8.1</v>
       </c>
-      <c r="F4410" s="1">
+      <c r="F4410" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="4411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4411" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4411" s="2">
         <v>46049</v>
       </c>
@@ -89303,17 +89318,17 @@
       <c r="C4411" s="11">
         <v>6152088</v>
       </c>
-      <c r="D4411" s="1">
+      <c r="D4411" s="14">
         <v>0.8</v>
       </c>
-      <c r="E4411" s="1">
+      <c r="E4411" s="14">
         <v>-1.8</v>
       </c>
-      <c r="F4411" s="1">
+      <c r="F4411" s="14">
         <v>4.8</v>
       </c>
     </row>
-    <row r="4412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4412" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4412" s="2">
         <v>46050</v>
       </c>
@@ -89323,17 +89338,17 @@
       <c r="C4412" s="10">
         <v>6331629</v>
       </c>
-      <c r="D4412" s="1">
+      <c r="D4412" s="14">
         <v>-1.2</v>
       </c>
-      <c r="E4412" s="1">
+      <c r="E4412" s="14">
         <v>-4.7</v>
       </c>
-      <c r="F4412" s="1">
+      <c r="F4412" s="14">
         <v>3.3</v>
       </c>
     </row>
-    <row r="4413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4413" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4413" s="2">
         <v>46051</v>
       </c>
@@ -89343,17 +89358,17 @@
       <c r="C4413" s="11">
         <v>6319587</v>
       </c>
-      <c r="D4413" s="1">
+      <c r="D4413" s="14">
         <v>-0.4</v>
       </c>
-      <c r="E4413" s="1">
+      <c r="E4413" s="14">
         <v>-3.6</v>
       </c>
-      <c r="F4413" s="1">
+      <c r="F4413" s="14">
         <v>4.3</v>
       </c>
     </row>
-    <row r="4414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4414" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4414" s="2">
         <v>46052</v>
       </c>
@@ -89363,17 +89378,17 @@
       <c r="C4414" s="10">
         <v>6523224</v>
       </c>
-      <c r="D4414" s="1">
+      <c r="D4414" s="14">
         <v>-2.1</v>
       </c>
-      <c r="E4414" s="1">
+      <c r="E4414" s="14">
         <v>-5.6</v>
       </c>
-      <c r="F4414" s="1">
+      <c r="F4414" s="14">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4415" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4415" s="2">
         <v>46053</v>
       </c>
@@ -89383,461 +89398,524 @@
       <c r="C4415" s="11">
         <v>5806316</v>
       </c>
-      <c r="D4415" s="1">
+      <c r="D4415" s="14">
         <v>-0.6</v>
       </c>
-      <c r="E4415" s="1">
+      <c r="E4415" s="14">
         <v>-7</v>
       </c>
-      <c r="F4415" s="1">
+      <c r="F4415" s="14">
         <v>5.4</v>
       </c>
     </row>
-    <row r="4416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4416" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4416" s="7">
         <v>46054</v>
       </c>
-      <c r="B4416" s="14">
+      <c r="B4416" s="13">
         <v>231460034</v>
       </c>
-      <c r="C4416" s="14">
+      <c r="C4416" s="13">
         <v>5410295</v>
       </c>
-      <c r="D4416" s="1">
+      <c r="D4416" s="14">
         <v>-0.3</v>
       </c>
-      <c r="E4416" s="5">
+      <c r="E4416" s="14">
         <v>-3.9</v>
       </c>
-      <c r="F4416" s="5">
+      <c r="F4416" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="4417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4417" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4417" s="7">
         <v>46055</v>
       </c>
-      <c r="B4417" s="14">
+      <c r="B4417" s="13">
         <v>263280887</v>
       </c>
-      <c r="C4417" s="14">
+      <c r="C4417" s="13">
         <v>6158909</v>
       </c>
-      <c r="D4417" s="1">
+      <c r="D4417" s="14">
         <v>-1.5</v>
       </c>
-      <c r="E4417" s="5">
+      <c r="E4417" s="14">
         <v>-6</v>
       </c>
-      <c r="F4417" s="5">
+      <c r="F4417" s="14">
         <v>2.7</v>
       </c>
     </row>
-    <row r="4418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4418" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4418" s="7">
         <v>46056</v>
       </c>
-      <c r="B4418" s="14">
+      <c r="B4418" s="13">
         <v>253722193</v>
       </c>
-      <c r="C4418" s="14">
+      <c r="C4418" s="13">
         <v>5941039</v>
       </c>
-      <c r="D4418" s="1">
+      <c r="D4418" s="14">
         <v>1.2</v>
       </c>
-      <c r="E4418" s="5">
+      <c r="E4418" s="14">
         <v>-5.4</v>
       </c>
-      <c r="F4418" s="5">
+      <c r="F4418" s="14">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="4419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4419" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4419" s="7">
         <v>46057</v>
       </c>
-      <c r="B4419" s="14">
+      <c r="B4419" s="13">
         <v>236014580</v>
       </c>
-      <c r="C4419" s="14">
+      <c r="C4419" s="13">
         <v>5541039</v>
       </c>
-      <c r="D4419" s="1">
+      <c r="D4419" s="14">
         <v>3</v>
       </c>
-      <c r="E4419" s="5">
+      <c r="E4419" s="14">
         <v>-3.3</v>
       </c>
-      <c r="F4419" s="5">
+      <c r="F4419" s="14">
         <v>10.4</v>
       </c>
     </row>
-    <row r="4420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4420" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4420" s="7">
         <v>46058</v>
       </c>
-      <c r="B4420" s="14">
+      <c r="B4420" s="13">
         <v>218842000</v>
       </c>
-      <c r="C4420" s="14">
+      <c r="C4420" s="13">
         <v>5145541</v>
       </c>
-      <c r="D4420" s="1">
+      <c r="D4420" s="14">
         <v>6.1</v>
       </c>
-      <c r="E4420" s="5">
+      <c r="E4420" s="14">
         <v>-1.6</v>
       </c>
-      <c r="F4420" s="5">
+      <c r="F4420" s="14">
         <v>14</v>
       </c>
     </row>
-    <row r="4421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4421" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4421" s="7">
         <v>46059</v>
       </c>
-      <c r="B4421" s="14">
+      <c r="B4421" s="13">
         <v>225019493</v>
       </c>
-      <c r="C4421" s="14">
+      <c r="C4421" s="13">
         <v>5289603</v>
       </c>
-      <c r="D4421" s="1">
+      <c r="D4421" s="14">
         <v>2.9</v>
       </c>
-      <c r="E4421" s="5">
+      <c r="E4421" s="14">
         <v>0.1</v>
       </c>
-      <c r="F4421" s="5">
+      <c r="F4421" s="14">
         <v>7.2</v>
       </c>
     </row>
-    <row r="4422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4422" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4422" s="7">
         <v>46060</v>
       </c>
-      <c r="B4422" s="14">
+      <c r="B4422" s="13">
         <v>239694610</v>
       </c>
-      <c r="C4422" s="14">
+      <c r="C4422" s="13">
         <v>5621023</v>
       </c>
-      <c r="D4422" s="1">
+      <c r="D4422" s="14">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="E4422" s="12">
+      <c r="E4422" s="14">
         <v>-5.8</v>
       </c>
-      <c r="F4422" s="12">
+      <c r="F4422" s="14">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4423" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4423" s="7">
         <v>46061</v>
       </c>
-      <c r="B4423" s="14">
+      <c r="B4423" s="13">
         <v>260957149</v>
       </c>
-      <c r="C4423" s="14">
+      <c r="C4423" s="13">
         <v>6107516</v>
       </c>
-      <c r="D4423" s="1">
+      <c r="D4423" s="14">
         <v>-5</v>
       </c>
-      <c r="E4423" s="12">
+      <c r="E4423" s="14">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="F4423" s="12">
+      <c r="F4423" s="14">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="4424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4424" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4424" s="7">
         <v>46062</v>
       </c>
-      <c r="B4424" s="14">
+      <c r="B4424" s="13">
         <v>257402574</v>
       </c>
-      <c r="C4424" s="14">
+      <c r="C4424" s="13">
         <v>6037724</v>
       </c>
-      <c r="D4424" s="1">
+      <c r="D4424" s="14">
         <v>0.4</v>
       </c>
-      <c r="E4424" s="12">
-        <v>-7</v>
-      </c>
-      <c r="F4424" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4424" s="14">
+        <v>-5.8</v>
+      </c>
+      <c r="F4424" s="14">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4425" s="7">
         <v>46063</v>
       </c>
-      <c r="B4425" s="14">
+      <c r="B4425" s="13">
         <v>251628937</v>
       </c>
-      <c r="C4425" s="14">
+      <c r="C4425" s="13">
         <v>5896186</v>
       </c>
-      <c r="D4425" s="1">
+      <c r="D4425" s="14">
         <v>2.8</v>
       </c>
-      <c r="E4425" s="12">
-        <v>-3</v>
-      </c>
-      <c r="F4425" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4425" s="14">
+        <v>-3.1</v>
+      </c>
+      <c r="F4425" s="14">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4426" s="7">
         <v>46064</v>
       </c>
-      <c r="B4426" s="14">
+      <c r="B4426" s="13">
         <v>233079151</v>
       </c>
-      <c r="C4426" s="14">
+      <c r="C4426" s="13">
         <v>5440980</v>
       </c>
-      <c r="D4426" s="1">
+      <c r="D4426" s="14">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E4426" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4426" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4426" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="F4426" s="14">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4427" s="7">
         <v>46065</v>
       </c>
-      <c r="B4427" s="14">
+      <c r="B4427" s="13">
         <v>224767484</v>
       </c>
-      <c r="C4427" s="14">
+      <c r="C4427" s="13">
         <v>5255214</v>
       </c>
-      <c r="D4427" s="1">
+      <c r="D4427" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E4427" s="12">
-        <v>-2</v>
-      </c>
-      <c r="F4427" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4427" s="14">
+        <v>-0.6</v>
+      </c>
+      <c r="F4427" s="14">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4428" s="7">
         <v>46066</v>
       </c>
-      <c r="B4428" s="14">
+      <c r="B4428" s="13">
         <v>212685300</v>
       </c>
-      <c r="C4428" s="14">
+      <c r="C4428" s="13">
         <v>4995680</v>
       </c>
-      <c r="D4428" s="1">
+      <c r="D4428" s="14">
         <v>5.2</v>
       </c>
-      <c r="E4428" s="12">
-        <v>-2</v>
-      </c>
-      <c r="F4428" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4428" s="14">
+        <v>-2.6</v>
+      </c>
+      <c r="F4428" s="14">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4429" s="7">
         <v>46067</v>
       </c>
-      <c r="B4429" s="14">
+      <c r="B4429" s="13">
         <v>188537193</v>
       </c>
-      <c r="C4429" s="14">
+      <c r="C4429" s="13">
         <v>4430044</v>
       </c>
-      <c r="D4429" s="1">
+      <c r="D4429" s="14">
         <v>6.6</v>
       </c>
-      <c r="E4429" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4429" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4429" s="14">
+        <v>-0.4</v>
+      </c>
+      <c r="F4429" s="14">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4430" s="7">
         <v>46068</v>
       </c>
-      <c r="B4430" s="14">
+      <c r="B4430" s="13">
         <v>165558989</v>
       </c>
-      <c r="C4430" s="14">
+      <c r="C4430" s="13">
         <v>3883804</v>
       </c>
-      <c r="D4430" s="1">
+      <c r="D4430" s="14">
         <v>8.4</v>
       </c>
-      <c r="E4430" s="12">
-        <v>2</v>
-      </c>
-      <c r="F4430" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4430" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4430" s="14">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4431" s="2">
         <v>46069</v>
       </c>
-      <c r="B4431" s="14">
+      <c r="B4431" s="13">
         <v>174403457</v>
       </c>
-      <c r="C4431" s="14">
+      <c r="C4431" s="13">
         <v>4088389</v>
       </c>
-      <c r="D4431" s="1">
+      <c r="D4431" s="14">
         <v>5.7</v>
       </c>
-      <c r="E4431" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F4431" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4431" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="F4431" s="14">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4432" s="2">
         <v>46070</v>
       </c>
-      <c r="B4432" s="14">
+      <c r="B4432" s="13">
         <v>164180373</v>
       </c>
-      <c r="C4432" s="14">
+      <c r="C4432" s="13">
         <v>3844412</v>
       </c>
-      <c r="D4432" s="1">
+      <c r="D4432" s="14">
         <v>5.2</v>
       </c>
-      <c r="E4432" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F4432" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4432" s="14">
+        <v>-0.6</v>
+      </c>
+      <c r="F4432" s="14">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4433" s="2">
         <v>46071</v>
       </c>
-      <c r="B4433" s="14">
+      <c r="B4433" s="13">
         <v>169013046</v>
       </c>
-      <c r="C4433" s="14">
+      <c r="C4433" s="13">
         <v>3964379</v>
       </c>
-      <c r="D4433" s="1">
+      <c r="D4433" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E4433" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F4433" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4433" s="14">
+        <v>-1.4</v>
+      </c>
+      <c r="F4433" s="14">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4434" s="2">
         <v>46072</v>
       </c>
-      <c r="E4434" s="13">
-        <v>-4</v>
-      </c>
-      <c r="F4434" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4434" s="13">
+        <v>187310799</v>
+      </c>
+      <c r="C4434" s="13">
+        <v>4398818</v>
+      </c>
+      <c r="D4434" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="E4434" s="14">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="F4434" s="14">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4435" s="2">
         <v>46073</v>
       </c>
-      <c r="E4435" s="13">
-        <v>-2</v>
-      </c>
-      <c r="F4435" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4435" s="13">
+        <v>180700961</v>
+      </c>
+      <c r="C4435" s="13">
+        <v>4239089</v>
+      </c>
+      <c r="D4435" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="E4435" s="14">
+        <v>-1.6</v>
+      </c>
+      <c r="F4435" s="14">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4436" s="2">
         <v>46074</v>
       </c>
-      <c r="E4436" s="13">
-        <v>2</v>
-      </c>
-      <c r="F4436" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4436" s="13">
+        <v>154463409</v>
+      </c>
+      <c r="C4436" s="13">
+        <v>3619697</v>
+      </c>
+      <c r="D4436" s="14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E4436" s="14">
+        <v>-0.5</v>
+      </c>
+      <c r="F4436" s="14">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4437" s="2">
         <v>46075</v>
       </c>
-      <c r="E4437" s="13">
-        <v>8</v>
-      </c>
-      <c r="F4437" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4437" s="13">
+        <v>132590218</v>
+      </c>
+      <c r="C4437" s="13">
+        <v>3097651</v>
+      </c>
+      <c r="D4437" s="14">
+        <v>11.6</v>
+      </c>
+      <c r="E4437" s="14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F4437" s="14">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4438" s="2">
         <v>46076</v>
       </c>
-      <c r="E4438" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4438" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4438" s="13">
+        <v>171280960</v>
+      </c>
+      <c r="C4438" s="13">
+        <v>4003942</v>
+      </c>
+      <c r="D4438" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="E4438" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="F4438" s="14">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4439" s="2">
         <v>46077</v>
       </c>
-      <c r="E4439" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F4439" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4439" s="13">
+        <v>204191951</v>
+      </c>
+      <c r="C4439" s="13">
+        <v>4770693</v>
+      </c>
+      <c r="D4439" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="E4439" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F4439" s="14">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4440" s="2">
         <v>46078</v>
       </c>
-      <c r="E4440" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F4440" s="13">
-        <v>10</v>
+      <c r="B4440" s="13">
+        <v>191058803</v>
+      </c>
+      <c r="C4440" s="13">
+        <v>4464182</v>
+      </c>
+      <c r="D4440" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="E4440" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4440" s="14">
+        <v>11</v>
       </c>
     </row>
     <row r="4441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4441" s="2">
         <v>46079</v>
       </c>
-      <c r="E4441" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4441" s="13">
+      <c r="E4441" s="12">
+        <v>4</v>
+      </c>
+      <c r="F4441" s="12">
         <v>13</v>
       </c>
     </row>
@@ -89846,10 +89924,10 @@
         <v>46080</v>
       </c>
       <c r="E4442" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4442" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4443" spans="1:6" x14ac:dyDescent="0.3">
@@ -89857,113 +89935,179 @@
         <v>46081</v>
       </c>
       <c r="E4443" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4443" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4444" s="2">
         <v>46082</v>
       </c>
+      <c r="E4444" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4444" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="4445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4445" s="2">
         <v>46083</v>
       </c>
+      <c r="E4445" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4445" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="4446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4446" s="2">
         <v>46084</v>
       </c>
+      <c r="E4446" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4446" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="4447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4447" s="2">
         <v>46085</v>
       </c>
+      <c r="E4447" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4447" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="4448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4448" s="2">
         <v>46086</v>
       </c>
-    </row>
-    <row r="4449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E4448" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4448" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4449" s="2">
         <v>46087</v>
       </c>
-    </row>
-    <row r="4450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E4449" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4449" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4450" s="2">
         <v>46088</v>
       </c>
-    </row>
-    <row r="4451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E4450" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4450" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4451" s="2">
         <v>46089</v>
       </c>
-    </row>
-    <row r="4452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E4451" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4451" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4452" s="2">
         <v>46090</v>
       </c>
-    </row>
-    <row r="4453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E4452" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4452" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4453" s="2">
         <v>46091</v>
       </c>
-    </row>
-    <row r="4454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E4453" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4453" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4454" s="2">
         <v>46092</v>
       </c>
-    </row>
-    <row r="4455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E4454" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4454" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4455" s="2">
         <v>46093</v>
       </c>
     </row>
-    <row r="4456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4456" s="2">
         <v>46094</v>
       </c>
     </row>
-    <row r="4457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4457" s="2">
         <v>46095</v>
       </c>
     </row>
-    <row r="4458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4458" s="2">
         <v>46096</v>
       </c>
     </row>
-    <row r="4459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4459" s="2">
         <v>46097</v>
       </c>
     </row>
-    <row r="4460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4460" s="2">
         <v>46098</v>
       </c>
     </row>
-    <row r="4461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4461" s="2">
         <v>46099</v>
       </c>
     </row>
-    <row r="4462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4462" s="2">
         <v>46100</v>
       </c>
     </row>
-    <row r="4463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4463" s="2">
         <v>46101</v>
       </c>
     </row>
-    <row r="4464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4464" s="2">
         <v>46102</v>
       </c>

--- a/일일공급량_raw.xlsx
+++ b/일일공급량_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2026\streamlit_study\MM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{547AA1FE-4B20-433D-A152-069107986DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27997777-2DBF-40E9-AB79-F5CB2DEF213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="585" windowWidth="29040" windowHeight="15720" xr2:uid="{EA341F54-7076-456B-B2A5-63C21B48371E}"/>
   </bookViews>
@@ -1098,7 +1098,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B4431" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K4451" sqref="K4451"/>
+      <selection pane="bottomRight" activeCell="K4440" sqref="K4440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -89924,10 +89924,10 @@
         <v>46080</v>
       </c>
       <c r="E4442" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4442" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4443" spans="1:6" x14ac:dyDescent="0.3">
@@ -89946,7 +89946,7 @@
         <v>46082</v>
       </c>
       <c r="E4444" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4444" s="1">
         <v>11</v>
@@ -89957,7 +89957,7 @@
         <v>46083</v>
       </c>
       <c r="E4445" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4445" s="1">
         <v>7</v>
@@ -89968,7 +89968,7 @@
         <v>46084</v>
       </c>
       <c r="E4446" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4446" s="1">
         <v>12</v>
@@ -89979,10 +89979,10 @@
         <v>46085</v>
       </c>
       <c r="E4447" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4447" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4448" spans="1:6" x14ac:dyDescent="0.3">
@@ -89990,7 +89990,7 @@
         <v>46086</v>
       </c>
       <c r="E4448" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4448" s="1">
         <v>14</v>
@@ -90001,10 +90001,10 @@
         <v>46087</v>
       </c>
       <c r="E4449" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4449" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4450" spans="1:6" x14ac:dyDescent="0.3">
@@ -90012,10 +90012,10 @@
         <v>46088</v>
       </c>
       <c r="E4450" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4450" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4451" spans="1:6" x14ac:dyDescent="0.3">
@@ -90023,10 +90023,10 @@
         <v>46089</v>
       </c>
       <c r="E4451" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4451" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4452" spans="1:6" x14ac:dyDescent="0.3">
@@ -90034,10 +90034,10 @@
         <v>46090</v>
       </c>
       <c r="E4452" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4452" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4453" spans="1:6" x14ac:dyDescent="0.3">
@@ -90045,10 +90045,10 @@
         <v>46091</v>
       </c>
       <c r="E4453" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4453" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4454" spans="1:6" x14ac:dyDescent="0.3">
@@ -90056,10 +90056,10 @@
         <v>46092</v>
       </c>
       <c r="E4454" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4454" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4455" spans="1:6" x14ac:dyDescent="0.3">
